--- a/Input/Alliance/benefits.xlsx
+++ b/Input/Alliance/benefits.xlsx
@@ -306,7 +306,7 @@
     <t xml:space="preserve">2023-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE – Dubai</t>
+    <t xml:space="preserve">Dubai</t>
   </si>
   <si>
     <t xml:space="preserve">Alliance</t>
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:BL8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI7" activeCellId="0" sqref="AI7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF4" activeCellId="0" sqref="BF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
